--- a/artfynd/A 55016-2025 artfynd.xlsx
+++ b/artfynd/A 55016-2025 artfynd.xlsx
@@ -3012,7 +3012,7 @@
         <v>130098634</v>
       </c>
       <c r="B23" t="n">
-        <v>58252</v>
+        <v>58256</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3129,7 +3129,7 @@
         <v>130226063</v>
       </c>
       <c r="B24" t="n">
-        <v>58252</v>
+        <v>58256</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>

--- a/artfynd/A 55016-2025 artfynd.xlsx
+++ b/artfynd/A 55016-2025 artfynd.xlsx
@@ -1988,7 +1988,7 @@
         <v>130098037</v>
       </c>
       <c r="B14" t="n">
-        <v>58011</v>
+        <v>58043</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2785,7 +2785,7 @@
         <v>130226285</v>
       </c>
       <c r="B21" t="n">
-        <v>58013</v>
+        <v>58043</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>

--- a/artfynd/A 55016-2025 artfynd.xlsx
+++ b/artfynd/A 55016-2025 artfynd.xlsx
@@ -1714,7 +1714,7 @@
         <v>130095566</v>
       </c>
       <c r="B12" t="n">
-        <v>57849</v>
+        <v>57881</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -2105,7 +2105,7 @@
         <v>130227494</v>
       </c>
       <c r="B15" t="n">
-        <v>57851</v>
+        <v>57881</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2324,7 +2324,7 @@
         <v>130227469</v>
       </c>
       <c r="B17" t="n">
-        <v>57851</v>
+        <v>57881</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>130226160</v>
       </c>
       <c r="B19" t="n">
-        <v>57851</v>
+        <v>57881</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2902,7 +2902,7 @@
         <v>130236552</v>
       </c>
       <c r="B22" t="n">
-        <v>57851</v>
+        <v>57881</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
